--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>пройдено</t>
   </si>
   <si>
     <t>осталось</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -29,9 +32,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +65,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -103,14 +114,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -412,14 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,11 +469,9 @@
       <c r="D3" s="2">
         <v>28</v>
       </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1018,11 +1031,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>1006</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1034,7 +1047,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>16.766666666666666</v>
+        <v>17.166666666666668</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,7 +1058,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>51.766666666666666</v>
+        <v>51.166666666666671</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -1055,7 +1068,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>1.8833333333333329</v>
+        <v>2.4833333333333272</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,7 +1077,24 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>51.766666666666666</v>
+        <v>51.166666666666671</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="7">
+        <f>B41/(B42/100)</f>
+        <v>4.8534201954397274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44513</v>
+      </c>
+      <c r="B46" s="9">
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -125,6 +125,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,9 +471,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>52</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1035,7 +1034,7 @@
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>1030</v>
+        <v>978</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1047,7 +1046,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>17.166666666666668</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1058,7 +1057,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>51.166666666666671</v>
+        <v>50.3</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -1068,7 +1067,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>2.4833333333333272</v>
+        <v>3.3500000000000014</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,7 +1076,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>51.166666666666671</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1086,15 +1085,23 @@
       </c>
       <c r="B43" s="7">
         <f>B41/(B42/100)</f>
-        <v>4.8534201954397274</v>
+        <v>6.6600397614314142</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="10">
         <v>44513</v>
       </c>
       <c r="B46" s="9">
         <v>4.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>44514</v>
+      </c>
+      <c r="B47" s="9">
+        <v>6.6600000000000006E-2</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -427,9 +427,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -484,11 +484,9 @@
       <c r="D4" s="2">
         <v>27</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1030,11 +1028,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>978</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,7 +1044,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>16.3</v>
+        <v>16.683333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,7 +1055,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>50.3</v>
+        <v>49.683333333333337</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -1067,7 +1065,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>3.3500000000000014</v>
+        <v>3.9666666666666615</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1076,7 +1074,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>50.3</v>
+        <v>49.683333333333337</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,7 +1083,7 @@
       </c>
       <c r="B43" s="7">
         <f>B41/(B42/100)</f>
-        <v>6.6600397614314142</v>
+        <v>7.983898020798379</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,6 +1100,14 @@
       </c>
       <c r="B47" s="9">
         <v>6.6600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>44514</v>
+      </c>
+      <c r="B48" s="9">
+        <v>7.9799999999999996E-2</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,9 +485,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>50</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -499,9 +497,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>12</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -513,9 +509,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>25</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -528,9 +522,7 @@
       <c r="D7" s="2">
         <v>36</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>36</v>
       </c>
@@ -1028,11 +1020,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>1001</v>
+        <v>914</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1036,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>16.683333333333334</v>
+        <v>15.233333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,7 +1047,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>49.683333333333337</v>
+        <v>47.233333333333334</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -1065,7 +1057,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>3.9666666666666615</v>
+        <v>6.4166666666666643</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1074,7 +1066,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>49.683333333333337</v>
+        <v>47.233333333333334</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1083,7 +1075,7 @@
       </c>
       <c r="B43" s="7">
         <f>B41/(B42/100)</f>
-        <v>7.983898020798379</v>
+        <v>13.585038814396608</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,6 +1100,14 @@
       </c>
       <c r="B48" s="9">
         <v>7.9799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>44522</v>
+      </c>
+      <c r="B49" s="9">
+        <v>0.13589999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -24,15 +24,16 @@
     <t>осталось</t>
   </si>
   <si>
-    <t>%</t>
+    <t>сейчас</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -114,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -122,10 +123,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,9 +490,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>50</v>
-      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -499,9 +502,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>12</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -513,9 +514,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>25</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -528,12 +527,8 @@
       <c r="D7" s="2">
         <v>36</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>36</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -546,12 +541,8 @@
       <c r="D8" s="2">
         <v>24</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>24</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -582,12 +573,8 @@
       <c r="D10" s="2">
         <v>12</v>
       </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>12</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -604,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -953,7 +940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -970,7 +957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
@@ -983,7 +970,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
@@ -1000,7 +987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>15</v>
       </c>
@@ -1017,7 +1004,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f>SUM(C2:C36)</f>
         <v>36</v>
@@ -1028,14 +1015,14 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="3">
         <f>D37/60</f>
@@ -1044,10 +1031,10 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>16.683333333333334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C39" s="4">
         <f>C37+D38</f>
         <v>53.65</v>
@@ -1055,59 +1042,96 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>49.683333333333337</v>
+        <v>43.55</v>
       </c>
       <c r="G39" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>53.7</v>
+      </c>
+      <c r="J39">
+        <v>49.7</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>53.7</v>
+      </c>
+      <c r="J40">
+        <v>43.6</v>
+      </c>
+      <c r="L40">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>3.9666666666666615</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1</v>
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>49.683333333333337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="7">
-        <f>B41/(B42/100)</f>
-        <v>7.983898020798379</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="B43" s="10">
+        <f>C39/100</f>
+        <v>0.53649999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="12">
+        <f>B41/B43</f>
+        <v>18.825722273998139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>44513</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="8">
         <v>4.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>44514</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>6.6600000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
         <v>44514</v>
       </c>
-      <c r="B48" s="9">
-        <v>7.9799999999999996E-2</v>
+      <c r="B48" s="8">
+        <v>7.4499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>44552</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.1883</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -432,9 +432,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -555,9 +555,7 @@
       <c r="D9" s="2">
         <v>26</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>26</v>
       </c>
@@ -1015,7 +1013,7 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
@@ -1042,7 +1040,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>43.55</v>
+        <v>42.55</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1072,7 +1070,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>10.100000000000001</v>
+        <v>11.100000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1081,7 +1079,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>43.55</v>
+        <v>42.55</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1099,7 +1097,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>18.825722273998139</v>
+        <v>20.689655172413797</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1132,6 +1130,14 @@
       </c>
       <c r="B49" s="8">
         <v>0.1883</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>44580</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.2069</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>пройдено</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>сейчас</t>
+  </si>
+  <si>
+    <t>досмотрел часть 4 - День 4. Сервисный слой. Модель предметной области</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,9 +559,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>26</v>
-      </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -585,12 +586,8 @@
       <c r="D11" s="2">
         <v>49</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>20</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1013,11 +1010,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>813</v>
+        <v>767</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1029,7 +1026,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>13.55</v>
+        <v>12.783333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1040,7 +1037,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>42.55</v>
+        <v>40.783333333333331</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1070,7 +1067,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>11.100000000000001</v>
+        <v>12.866666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1079,7 +1076,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>42.55</v>
+        <v>40.783333333333331</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1097,7 +1094,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>20.689655172413797</v>
+        <v>23.982603292948124</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1124,7 +1121,7 @@
         <v>7.4499999999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>44552</v>
       </c>
@@ -1132,12 +1129,23 @@
         <v>0.1883</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>44580</v>
       </c>
       <c r="B50" s="8">
         <v>0.2069</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>44590</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>пройдено</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>досмотрел часть 4 - День 4. Сервисный слой. Модель предметной области</t>
+  </si>
+  <si>
+    <t>половину посмотрел - День 5. Интеграция модели с Symfony - Часть 1.mp4</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,12 +603,8 @@
       <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>8</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1010,11 +1009,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1026,7 +1025,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>12.783333333333333</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1037,7 +1036,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>40.783333333333331</v>
+        <v>39.65</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1067,7 +1066,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>12.866666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1076,7 +1075,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>40.783333333333331</v>
+        <v>39.65</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1094,7 +1093,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>23.982603292948124</v>
+        <v>26.095060577819201</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1121,7 +1120,7 @@
         <v>7.4499999999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>44552</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>0.1883</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>44580</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>0.2069</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>44590</v>
       </c>
@@ -1146,6 +1145,20 @@
       </c>
       <c r="D51" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>44601</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="8">
+        <v>5.4100000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>пройдено</t>
   </si>
@@ -27,10 +27,13 @@
     <t>сейчас</t>
   </si>
   <si>
-    <t>досмотрел часть 4 - День 4. Сервисный слой. Модель предметной области</t>
+    <t>всё так же смотрю раздел Интеграция модели с Symfony - посмотрел на 3/4</t>
   </si>
   <si>
-    <t>половину посмотрел - День 5. Интеграция модели с Symfony - Часть 1.mp4</t>
+    <t>закончил на 1 час 07 минут</t>
+  </si>
+  <si>
+    <t>продвинулся на  0,71%</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,11 +619,9 @@
       <c r="D13" s="2">
         <v>18</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,11 +1010,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>759</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1025,7 +1026,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>12.65</v>
+        <v>13.266666666666667</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1036,7 +1037,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>39.65</v>
+        <v>39.266666666666666</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1066,7 +1067,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>14</v>
+        <v>14.383333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1075,7 +1076,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>39.65</v>
+        <v>39.266666666666666</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1093,7 +1094,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>26.095060577819201</v>
+        <v>26.809568188878533</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1143,9 +1144,6 @@
       <c r="B51" s="8">
         <v>0.23980000000000001</v>
       </c>
-      <c r="D51" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
@@ -1154,11 +1152,25 @@
       <c r="B52" s="8">
         <v>0.26100000000000001</v>
       </c>
-      <c r="D52" t="s">
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>44647</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.2681</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>4</v>
-      </c>
-      <c r="L52" s="8">
-        <v>5.4100000000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>пройдено</t>
   </si>
@@ -27,13 +27,7 @@
     <t>сейчас</t>
   </si>
   <si>
-    <t>всё так же смотрю раздел Интеграция модели с Symfony - посмотрел на 3/4</t>
-  </si>
-  <si>
-    <t>закончил на 1 час 07 минут</t>
-  </si>
-  <si>
-    <t>продвинулся на  0,71%</t>
+    <t>досмотрел раздел Интеграция модели с Symfony</t>
   </si>
 </sst>
 </file>
@@ -441,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,9 +614,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>55</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -634,12 +626,8 @@
       <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1010,11 +998,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>796</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1026,7 +1014,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>13.266666666666667</v>
+        <v>12.316666666666666</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1037,7 +1025,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>39.266666666666666</v>
+        <v>36.316666666666663</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1067,7 +1055,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>14.383333333333333</v>
+        <v>17.333333333333336</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1076,7 +1064,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>39.266666666666666</v>
+        <v>36.316666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1094,7 +1082,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>26.809568188878533</v>
+        <v>32.308170239204728</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1164,13 +1152,13 @@
       <c r="D53" t="s">
         <v>3</v>
       </c>
-      <c r="L53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>4</v>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>44675</v>
+      </c>
+      <c r="B54" s="8">
+        <v>0.3231</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>пройдено</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>досмотрел раздел Интеграция модели с Symfony</t>
+  </si>
+  <si>
+    <t>сделал аутентификацию через соцсети.</t>
+  </si>
+  <si>
+    <t>была оценка 18.05</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,11 +645,9 @@
       <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,11 +1002,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>739</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1014,7 +1018,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>12.316666666666666</v>
+        <v>12.816666666666666</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1025,7 +1029,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>36.316666666666663</v>
+        <v>35.816666666666663</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1055,7 +1059,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>17.333333333333336</v>
+        <v>17.833333333333336</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1064,7 +1068,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>36.316666666666663</v>
+        <v>35.816666666666663</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1082,7 +1086,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>32.308170239204728</v>
+        <v>33.240136688412555</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1159,6 +1163,20 @@
       </c>
       <c r="B54" s="8">
         <v>0.3231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>44699</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0.33240000000000003</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>пройдено</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>была оценка 18.05</t>
+  </si>
+  <si>
+    <t>занимался фронтом, установил simfony encore</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,9 +649,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>35</v>
-      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -664,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1006,7 +1007,7 @@
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>769</v>
+        <v>716</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1018,7 +1019,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>12.816666666666666</v>
+        <v>11.933333333333334</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1029,7 +1030,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>35.816666666666663</v>
+        <v>34.933333333333337</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>17.833333333333336</v>
+        <v>18.716666666666661</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1068,7 +1069,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>35.816666666666663</v>
+        <v>34.933333333333337</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1086,7 +1087,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>33.240136688412555</v>
+        <v>34.886610748679708</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1177,6 +1178,17 @@
       </c>
       <c r="I55" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>44710</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project-manager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABF6B7-35D6-46BA-8F8C-76D5656A0202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="10515" windowHeight="10545"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>пройдено</t>
   </si>
@@ -27,22 +43,13 @@
     <t>сейчас</t>
   </si>
   <si>
-    <t>досмотрел раздел Интеграция модели с Symfony</t>
-  </si>
-  <si>
-    <t>сделал аутентификацию через соцсети.</t>
-  </si>
-  <si>
-    <t>была оценка 18.05</t>
-  </si>
-  <si>
-    <t>занимался фронтом, установил simfony encore</t>
+    <t>установил админку core ui, перевёл сессии в редис</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -153,6 +160,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -200,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +243,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +295,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -443,11 +487,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,9 +1198,6 @@
       <c r="B53" s="8">
         <v>0.2681</v>
       </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
@@ -1173,12 +1214,6 @@
       <c r="B55" s="8">
         <v>0.33240000000000003</v>
       </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
@@ -1187,8 +1222,10 @@
       <c r="B56" s="8">
         <v>0.34889999999999999</v>
       </c>
-      <c r="D56" t="s">
-        <v>6</v>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1210,7 +1247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ABF6B7-35D6-46BA-8F8C-76D5656A0202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBD833A-7931-40C6-A1F0-30C587848841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>пройдено</t>
   </si>
@@ -43,7 +43,13 @@
     <t>сейчас</t>
   </si>
   <si>
-    <t>установил админку core ui, перевёл сессии в редис</t>
+    <t>Создал консольную команду активации пользователя.</t>
+  </si>
+  <si>
+    <t>установил админку core ui</t>
+  </si>
+  <si>
+    <t>перевёл сессии в редис</t>
   </si>
 </sst>
 </file>
@@ -488,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,6 +1231,16 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>3</v>
       </c>
     </row>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBD833A-7931-40C6-A1F0-30C587848841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C9EE0-6CDC-4286-AADE-FF512213EB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>пройдено</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>перевёл сессии в редис</t>
+  </si>
+  <si>
+    <t>Создал консольную команду смены роли пользователя.</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1245,11 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21C9EE0-6CDC-4286-AADE-FF512213EB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B0707-0856-4D12-B5B1-A0B93B8F2CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>пройдено</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Создал консольную команду смены роли пользователя.</t>
+  </si>
+  <si>
+    <t>Настроил mailhog</t>
+  </si>
+  <si>
+    <t>Сделал страницу профиля пользователя</t>
   </si>
 </sst>
 </file>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,6 +1256,16 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B0707-0856-4D12-B5B1-A0B93B8F2CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDC9EE6-55A3-4687-B7E2-702F75E1325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>пройдено</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Сделал страницу профиля пользователя</t>
+  </si>
+  <si>
+    <t>Научился писать собственные функции для шаблонизатора Twig (виджет вывода статуса пользователя)</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,6 +1269,11 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDC9EE6-55A3-4687-B7E2-702F75E1325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD74489D-91C8-4A23-A8B6-37337BF38F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="30" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,12 +723,8 @@
       <c r="D16" s="2">
         <v>23</v>
       </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>43</v>
-      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -740,12 +736,8 @@
       <c r="D17" s="2">
         <v>43</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1065,11 +1057,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>716</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1081,7 +1073,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>11.933333333333334</v>
+        <v>11.133333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1092,7 +1084,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>34.933333333333337</v>
+        <v>32.133333333333333</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1122,7 +1114,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>18.716666666666661</v>
+        <v>21.516666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1131,7 +1123,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>34.933333333333337</v>
+        <v>32.133333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1149,7 +1141,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>34.886610748679708</v>
+        <v>40.105622864243557</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1242,6 +1234,12 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
+        <v>44741</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.40110000000000001</v>
+      </c>
       <c r="D57" t="s">
         <v>4</v>
       </c>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD74489D-91C8-4A23-A8B6-37337BF38F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFA885-152B-455C-BF76-F317A5FBDC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="30" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>пройдено</t>
   </si>
@@ -43,25 +43,7 @@
     <t>сейчас</t>
   </si>
   <si>
-    <t>Создал консольную команду активации пользователя.</t>
-  </si>
-  <si>
-    <t>установил админку core ui</t>
-  </si>
-  <si>
-    <t>перевёл сессии в редис</t>
-  </si>
-  <si>
-    <t>Создал консольную команду смены роли пользователя.</t>
-  </si>
-  <si>
-    <t>Настроил mailhog</t>
-  </si>
-  <si>
-    <t>Сделал страницу профиля пользователя</t>
-  </si>
-  <si>
-    <t>Научился писать собственные функции для шаблонизатора Twig (виджет вывода статуса пользователя)</t>
+    <t>Реализовал функционал изменения емейла.</t>
   </si>
 </sst>
 </file>
@@ -506,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,38 +1222,10 @@
       <c r="B57" s="8">
         <v>0.40110000000000001</v>
       </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEFA885-152B-455C-BF76-F317A5FBDC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2CFCF7-A9AB-47A3-A821-121126FCDDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="30" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>пройдено</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Реализовал функционал изменения емейла.</t>
+  </si>
+  <si>
+    <t>Реализовал автоматическую аутентификацию пользователя после регистрации.</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,11 +734,9 @@
       <c r="D18" s="2">
         <v>25</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1039,11 +1040,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1055,7 +1056,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>11.133333333333333</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1066,7 +1067,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>32.133333333333333</v>
+        <v>31.3</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1096,7 +1097,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>21.516666666666666</v>
+        <v>22.349999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1105,7 +1106,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>32.133333333333333</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1123,7 +1124,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>40.105622864243557</v>
+        <v>41.658900279589936</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1223,9 +1224,22 @@
         <v>0.40110000000000001</v>
       </c>
     </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>44755</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.41659999999999997</v>
+      </c>
+    </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project-manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2CFCF7-A9AB-47A3-A821-121126FCDDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CCFFC5-960A-412F-AE6F-96CD593665B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="30" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,9 +734,11 @@
       <c r="D18" s="2">
         <v>25</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
       <c r="G18" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,11 +1042,11 @@
       </c>
       <c r="F37" s="2">
         <f>SUM(F2:F36)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" s="2">
         <f>SUM(G2:G36)</f>
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1056,7 +1058,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3">
         <f>G37/60</f>
-        <v>11.3</v>
+        <v>11.133333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1067,7 +1069,7 @@
       <c r="D39" s="3"/>
       <c r="F39" s="4">
         <f>F37+G38</f>
-        <v>31.3</v>
+        <v>32.133333333333333</v>
       </c>
       <c r="G39" s="3"/>
       <c r="I39">
@@ -1097,7 +1099,7 @@
       </c>
       <c r="B41" s="5">
         <f>C39-F39</f>
-        <v>22.349999999999998</v>
+        <v>21.516666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1106,7 +1108,7 @@
       </c>
       <c r="B42" s="6">
         <f>C39-(C39-F39)</f>
-        <v>31.3</v>
+        <v>32.133333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1124,7 +1126,7 @@
       </c>
       <c r="B44" s="12">
         <f>B41/B43</f>
-        <v>41.658900279589936</v>
+        <v>40.105622864243557</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1222,14 +1224,6 @@
       </c>
       <c r="B57" s="8">
         <v>0.40110000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>44755</v>
-      </c>
-      <c r="B58" s="8">
-        <v>0.41659999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
